--- a/Program/Other/L9731_底稿_人工檢核表4.xlsx
+++ b/Program/Other/L9731_底稿_人工檢核表4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>戶號</t>
   </si>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>擔保品類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品地區別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品地區別地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,13 +114,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -788,10 +797,10 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,20 +1153,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.90625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.54296875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.36328125" style="1" customWidth="1"/>
@@ -1167,14 +1176,14 @@
     <col min="12" max="12" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="20.81640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7265625" customWidth="1"/>
-    <col min="22" max="22" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="20.81640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" customWidth="1"/>
+    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1230,27 +1239,26 @@
         <f>SUBTOTAL(9,R2:R1048576)</f>
         <v>0</v>
       </c>
-      <c r="S1" s="12"/>
+      <c r="S1" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="T1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="E10"/>
     </row>
   </sheetData>

--- a/Program/Other/L9731_底稿_人工檢核表4.xlsx
+++ b/Program/Other/L9731_底稿_人工檢核表4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>戶號</t>
   </si>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>擔保品地區別地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件隸屬單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企金別</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1153,13 +1161,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1181,9 +1189,10 @@
     <col min="22" max="22" width="11.7265625" customWidth="1"/>
     <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1257,8 +1266,14 @@
       <c r="X1" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="Y1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E10"/>
     </row>
   </sheetData>

--- a/Program/Other/L9731_底稿_人工檢核表4.xlsx
+++ b/Program/Other/L9731_底稿_人工檢核表4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKL_SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C62364E-2FB4-41A7-B16D-D56C08C2BED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放款餘額明細表" sheetId="1" r:id="rId1"/>
@@ -18,21 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放款餘額明細表!$B$1:$S$1</definedName>
     <definedName name="_xlnm.Database">放款餘額明細表!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>戶號</t>
   </si>
@@ -115,13 +107,33 @@
   </si>
   <si>
     <t>企金別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建築貸款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無擔保金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無擔保資產分類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0000"/>
@@ -775,16 +787,16 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="33" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="33" borderId="0" xfId="19" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="34" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="34" borderId="0" xfId="19" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -832,11 +844,11 @@
     <cellStyle name="60% - 輔色5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 輔色6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="19"/>
-    <cellStyle name="一般 3 2" xfId="20"/>
+    <cellStyle name="一般 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="一般 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="千分位" xfId="21" builtinId="3"/>
-    <cellStyle name="千分位 2" xfId="22"/>
-    <cellStyle name="千分位 3" xfId="23"/>
+    <cellStyle name="千分位 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="千分位 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="中等" xfId="24" builtinId="28" customBuiltin="1"/>
     <cellStyle name="合計" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="好" xfId="26" builtinId="26" customBuiltin="1"/>
@@ -875,9 +887,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -915,9 +927,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,7 +964,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -987,7 +999,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1160,39 +1172,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
+      <selection pane="bottomRight" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="20.81640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" customWidth="1"/>
-    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="20.77734375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" customWidth="1"/>
+    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1272,12 +1288,27 @@
       <c r="Z1" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:S1"/>
+  <autoFilter ref="B1:S1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Program/Other/L9731_底稿_人工檢核表4.xlsx
+++ b/Program/Other/L9731_底稿_人工檢核表4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKL_SVN\iTX\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C62364E-2FB4-41A7-B16D-D56C08C2BED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F372606-E6A2-4FAA-A159-88F0FECECD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="5670" windowWidth="16840" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放款餘額明細表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>戶號</t>
   </si>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>無擔保資產分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利害關係人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定資產記號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,42 +1181,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE4" sqref="AE4"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="20.77734375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" customWidth="1"/>
-    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="20.81640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.81640625" customWidth="1"/>
+    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" customWidth="1"/>
+    <col min="31" max="31" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1292,19 +1302,25 @@
         <v>25</v>
       </c>
       <c r="AB1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="E10"/>
     </row>
   </sheetData>
